--- a/pdf/teams/registrated_teams.xlsx
+++ b/pdf/teams/registrated_teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971933F4-2E71-4557-B684-F601899DF9C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1B802E-CD32-40DC-94C1-56FC31D24F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{638C7876-0A72-4893-AD20-36272AFC472C}"/>
   </bookViews>
@@ -594,6 +594,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -630,7 +631,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -664,16 +664,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE660360-1FA5-4416-87F5-672359A88198}" name="Table3" displayName="Table3" ref="A2:G84" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE660360-1FA5-4416-87F5-672359A88198}" name="Table3" displayName="Table3" ref="A2:G84" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G84" xr:uid="{2DFEC8C7-BCC1-499C-9278-6554E148542D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C6427C4-5C70-4561-B012-6A31C44B464E}" name="Názov tímu" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A243C86-7DBF-4153-B5CA-86278C47C65C}" name="Typ tímu" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CC796D6C-692C-4F5C-9D10-CC6C85823B0B}" name="Racing elektro" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{883870EA-9E19-4A06-8990-B1CD818516D7}" name="Racing Lego" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{70A6CE7B-0E9A-43BC-950A-283EC54EC8B9}" name="Robotická výzva" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{288B59F8-E6F4-4D41-9C67-BE8E770B4B36}" name="Vlastný Model" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{3989CEF9-BE38-4E5D-91A5-7B37A572CE9D}" name="Škola prvého člena tímu" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3C6427C4-5C70-4561-B012-6A31C44B464E}" name="Názov tímu" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0A243C86-7DBF-4153-B5CA-86278C47C65C}" name="Typ tímu" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CC796D6C-692C-4F5C-9D10-CC6C85823B0B}" name="Racing Lego" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{883870EA-9E19-4A06-8990-B1CD818516D7}" name="Racing elektro" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{70A6CE7B-0E9A-43BC-950A-283EC54EC8B9}" name="Robotická výzva" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{288B59F8-E6F4-4D41-9C67-BE8E770B4B36}" name="Vlastný Model" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3989CEF9-BE38-4E5D-91A5-7B37A572CE9D}" name="Škola prvého člena tímu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,7 +979,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>129</v>
